--- a/project/expert.xlsx
+++ b/project/expert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\blog\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2402F01A-B2BE-484B-B4AA-6C9429F81DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CDC80A-B1D3-41E2-A977-5211DE78CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="-108" windowWidth="29496" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="-110" windowWidth="18220" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,11 +51,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>channel wise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复现CTR代码</t>
+    <t>复现efficientgcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现ctrgcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融合修改efficientgcn+ctrgcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将efficientgcn的网络通道增加通道之间的联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将ctrgcn的输入换成efficientgcn的多输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将ctrgcn  feature transformation改造成其他网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr_decay_rate</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>低于70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现shiftgcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向对比空间域，时间域，通道域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何与点卷积结合？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Joint_Att 模块用在其他项目中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,13 +157,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,135 +473,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4">
+      <c r="D2" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="C5" t="s">
+      <c r="D3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="C6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="C7" t="s">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.89990000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="D14" s="3">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A15"/>
-    <mergeCell ref="A16:A27"/>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A8:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/expert.xlsx
+++ b/project/expert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\blog\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CDC80A-B1D3-41E2-A977-5211DE78CCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAA5A5-4557-4A6C-9F9D-31FAD35789BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="-110" windowWidth="18220" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1330" yWindow="-110" windowWidth="17980" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>transformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,15 +93,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>横向对比空间域，时间域，通道域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如何与点卷积结合？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ST_Joint_Att 模块用在其他项目中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复现shift_gcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进shift_gcn代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入motion excitation 模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间域，时间域，通道域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -157,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -184,14 +202,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -491,12 +512,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -510,7 +531,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -522,7 +543,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -532,7 +553,7 @@
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -542,7 +563,7 @@
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -555,7 +576,7 @@
       <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8">
@@ -572,7 +593,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="2">
@@ -586,7 +607,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2">
@@ -600,7 +621,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="2">
@@ -614,7 +635,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="2">
@@ -628,12 +649,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -645,7 +666,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -655,7 +676,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="8">
         <v>3</v>
       </c>
@@ -666,11 +687,11 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="2" t="s">
@@ -678,7 +699,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="2" t="s">
@@ -686,37 +707,68 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="13"/>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="13"/>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:A19"/>
+    <mergeCell ref="A21:A32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/expert.xlsx
+++ b/project/expert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\blog\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAA5A5-4557-4A6C-9F9D-31FAD35789BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0AD01D-4590-489B-99E6-91B73567851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1330" yWindow="-110" windowWidth="17980" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="-108" windowWidth="28932" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
